--- a/data-source/co2-consumption.xlsx
+++ b/data-source/co2-consumption.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philipschonholzer/Development/myco2/data-source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{78926494-335D-1D41-8E89-8434DAF3FE79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B1EB06-4D8C-9C40-B3DC-A59F19B20A00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="460" windowWidth="28040" windowHeight="22580" activeTab="2" xr2:uid="{3601CD94-9BFF-FD43-ACFF-083E81522958}"/>
+    <workbookView xWindow="6460" yWindow="460" windowWidth="28040" windowHeight="22580" xr2:uid="{3601CD94-9BFF-FD43-ACFF-083E81522958}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="2016" sheetId="2" r:id="rId2"/>
     <sheet name="CSV-export" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7213" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7214" uniqueCount="367">
   <si>
     <t>Entity</t>
   </si>
@@ -1134,12 +1134,15 @@
   <si>
     <t>Flags</t>
   </si>
+  <si>
+    <t>https://ourworldindata.org/grapher/consumption-co2-per-capita?year=latest</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1154,6 +1157,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1D3D63"/>
+      <name val="Lato"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1191,12 +1200,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1402,48 +1412,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1599,6 +1567,48 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
@@ -1640,17 +1650,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6704CFE2-3CDD-AF46-B0C1-93399F2EC5D9}" name="Table2" displayName="Table2" ref="A1:F121" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6704CFE2-3CDD-AF46-B0C1-93399F2EC5D9}" name="Table2" displayName="Table2" ref="A1:F121" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="A1:F121" xr:uid="{1265C3A9-9CD0-C74B-9F13-6A941523D020}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E121">
     <sortCondition ref="A1:A121"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6ECFFC89-5000-7345-866B-2C8C2329E598}" name="Entity" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{9C81D076-CB88-8E42-8CF1-7F235DEB798C}" name="Code" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{34159280-9184-9F4A-916E-F51FDBF60186}" name="Year" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{84244F84-F42D-7448-83D7-2A918D6ED925}" name="Consumption-based per capita CO‚ÇÇ emissions (tonnes)" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{0B16FF02-CF6B-9244-9893-484B2220E9E3}" name="ca. CO2e" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{6ECFFC89-5000-7345-866B-2C8C2329E598}" name="Entity" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{9C81D076-CB88-8E42-8CF1-7F235DEB798C}" name="Code" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{34159280-9184-9F4A-916E-F51FDBF60186}" name="Year" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{84244F84-F42D-7448-83D7-2A918D6ED925}" name="Consumption-based per capita CO‚ÇÇ emissions (tonnes)" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{0B16FF02-CF6B-9244-9893-484B2220E9E3}" name="ca. CO2e" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{2C30E41F-256B-A54B-9F29-B5F480E5D8AF}" name="Flags" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1660,8 +1670,8 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F05F8906-C165-164F-9953-25D46545853D}" name="Table25" displayName="Table25" ref="A1:D121" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:D121" xr:uid="{1DC6F539-A18C-8F45-A6AE-D595AE38B5BF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C121">
-    <sortCondition ref="A1:A121"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D121">
+    <sortCondition descending="1" ref="C1:C121"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9474961C-E5D1-AC4E-8230-64D79D018A32}" name="Entity" dataDxfId="3"/>
@@ -1970,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A97223-8097-B041-B0BD-79D5A9BEAE03}">
-  <dimension ref="A1:E3240"/>
+  <dimension ref="A1:E3244"/>
   <sheetViews>
-    <sheetView topLeftCell="A2376" workbookViewId="0">
-      <selection sqref="A1:E3240"/>
+    <sheetView tabSelected="1" topLeftCell="A2214" workbookViewId="0">
+      <selection activeCell="D3248" sqref="D3248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -60300,6 +60310,11 @@
       <c r="E3240">
         <f>Table1[[#This Row],[Consumption-based per capita CO‚ÇÇ emissions (tonnes)]]/3*4</f>
         <v>7.7886533333333336E-3</v>
+      </c>
+    </row>
+    <row r="3244" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3244" s="5" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -62756,7 +62771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481AB6F0-5797-5F4D-B1C2-8E4F6346AD9A}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -62778,1682 +62793,1682 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1">
-        <v>0.95725149600000004</v>
+        <v>41.196773929999999</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="C3" s="1">
-        <v>4.7052134409999997</v>
+        <v>33.174761189999998</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>246</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="C4" s="1">
-        <v>0.925446934</v>
+        <v>27.05307191</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>247</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1">
-        <v>15.59223862</v>
+        <v>22.719718579999999</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>353</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1">
-        <v>10.53101461</v>
+        <v>22.62858817</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>354</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="C7" s="1">
-        <v>4.30164407</v>
+        <v>21.865273269999999</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="C8" s="1">
-        <v>14.053032229999999</v>
+        <v>19.286559690000001</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="C9" s="1">
-        <v>0.67280607199999998</v>
+        <v>17.746380309999999</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1">
-        <v>7.2077001349999996</v>
+        <v>16.52992485</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>358</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1">
-        <v>15.60585459</v>
+        <v>15.81779817</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>359</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
-        <v>0.44223990200000002</v>
+        <v>15.60585459</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>0.47152788800000001</v>
+        <v>15.59223862</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="C14" s="1">
-        <v>6.000052438</v>
+        <v>15.44059545</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="C15" s="1">
-        <v>2.5196944139999999</v>
+        <v>14.25069143</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>248</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>22.62858817</v>
+        <v>14.053032229999999</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>249</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1">
-        <v>5.4002422210000001</v>
+        <v>13.28754794</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="C18" s="1">
-        <v>6.3419583000000002E-2</v>
+        <v>13.095015099999999</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>251</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="C19" s="1">
-        <v>0.95437856099999996</v>
+        <v>12.919693669999999</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1">
-        <v>0.19032881200000001</v>
+        <v>12.645846949999999</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="C21" s="1">
-        <v>15.81779817</v>
+        <v>12.49736687</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>254</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="C22" s="1">
-        <v>5.1549432230000001</v>
+        <v>11.34438138</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>255</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="C23" s="1">
-        <v>6.2703588520000002</v>
+        <v>11.094535609999999</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="C24" s="1">
-        <v>2.0574387180000002</v>
+        <v>11.055109959999999</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1">
-        <v>1.339260458</v>
+        <v>10.83757056</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1">
-        <v>0.24913648599999999</v>
+        <v>10.53101461</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>259</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1">
-        <v>4.4586075169999999</v>
+        <v>10.14195488</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1">
-        <v>6.6066839010000002</v>
+        <v>10.0119863</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="C29" s="1">
-        <v>10.0119863</v>
+        <v>9.590429254</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>262</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="C30" s="1">
-        <v>9.2189955300000008</v>
+        <v>9.2801675990000003</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1">
-        <v>0.86023314799999995</v>
+        <v>9.2189955300000008</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C32" s="1">
-        <v>2.856610726</v>
+        <v>9.1363648669999993</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="C33" s="1">
-        <v>2.367252267</v>
+        <v>8.9635790909999997</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="C34" s="1">
-        <v>0.56912596000000004</v>
+        <v>8.6907307859999996</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>193</v>
       </c>
       <c r="C35" s="1">
-        <v>13.28754794</v>
+        <v>8.5880635200000004</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="C36" s="1">
-        <v>9.5156737000000005E-2</v>
+        <v>8.4588782699999996</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>269</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="C37" s="1">
-        <v>12.645846949999999</v>
+        <v>8.4238982599999996</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="C38" s="1">
-        <v>6.9323756899999998</v>
+        <v>8.2688608640000005</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="C39" s="1">
-        <v>1.58764153</v>
+        <v>8.0186624519999992</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>272</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="C40" s="1">
-        <v>10.83757056</v>
+        <v>7.8801368109999999</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="C41" s="1">
-        <v>0.39407605200000001</v>
+        <v>7.8069775049999999</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>274</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C42" s="1">
-        <v>5.6644574130000001</v>
+        <v>7.6818124560000003</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="C43" s="1">
-        <v>0.48887943</v>
+        <v>7.2077001349999996</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>276</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="C44" s="1">
-        <v>2.0099510000000001E-2</v>
+        <v>7.1444698579999999</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>277</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C45" s="1">
-        <v>0.49596038199999998</v>
+        <v>7.1395856130000004</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C46" s="1">
-        <v>16.52992485</v>
+        <v>6.9323756899999998</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="C47" s="1">
-        <v>6.5601184870000004</v>
+        <v>6.6066839010000002</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C48" s="1">
-        <v>1.67460257</v>
+        <v>6.5601184870000004</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C49" s="1">
-        <v>1.93398655</v>
+        <v>6.4685039050000004</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="C50" s="1">
-        <v>7.1395856130000004</v>
+        <v>6.2703588520000002</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="C51" s="1">
-        <v>9.1363648669999993</v>
+        <v>6.2078932460000003</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="C52" s="1">
-        <v>10.14195488</v>
+        <v>6.003775278</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="C53" s="1">
-        <v>7.6818124560000003</v>
+        <v>6.000052438</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>286</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="C54" s="1">
-        <v>1.1046976159999999</v>
+        <v>5.6856328219999996</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>287</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C55" s="1">
-        <v>11.055109959999999</v>
+        <v>5.6644574130000001</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="C56" s="1">
-        <v>3.4023633320000002</v>
+        <v>5.4002422210000001</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="C57" s="1">
-        <v>12.919693669999999</v>
+        <v>5.388061692</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C58" s="1">
-        <v>0.29843085800000002</v>
+        <v>5.2839460000000003</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="C59" s="1">
-        <v>22.719718579999999</v>
+        <v>5.1549432230000001</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>121</v>
+        <v>239</v>
       </c>
       <c r="C60" s="1">
-        <v>1.592446708</v>
+        <v>4.7796080239999998</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>293</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="C61" s="1">
-        <v>0.98140212599999999</v>
+        <v>4.7230009820000003</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="C62" s="1">
-        <v>6.4685039050000004</v>
+        <v>4.7052134409999997</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>126</v>
+        <v>234</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>127</v>
+        <v>235</v>
       </c>
       <c r="C63" s="1">
-        <v>7.8801368109999999</v>
+        <v>4.6971452490000001</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="C64" s="1">
-        <v>41.196773929999999</v>
+        <v>4.5057904249999998</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="C65" s="1">
-        <v>8.6494551000000003E-2</v>
+        <v>4.4586075169999999</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="C66" s="1">
-        <v>0.110937826</v>
+        <v>4.30164407</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>299</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C67" s="1">
-        <v>8.2688608640000005</v>
+        <v>4.1272267769999997</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="C68" s="1">
-        <v>11.094535609999999</v>
+        <v>3.745056081</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C69" s="1">
-        <v>2.1812258940000002</v>
+        <v>3.4023633320000002</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="C70" s="1">
-        <v>4.1272267769999997</v>
+        <v>2.856610726</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C71" s="1">
-        <v>8.6907307859999996</v>
+        <v>2.6135831039999999</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="C72" s="1">
-        <v>1.829051405</v>
+        <v>2.5196944139999999</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="C73" s="1">
-        <v>0.36991952299999997</v>
+        <v>2.367252267</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="C74" s="1">
-        <v>2.6135831039999999</v>
+        <v>2.314864848</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="C75" s="1">
-        <v>0.53486648999999997</v>
+        <v>2.225015183</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C76" s="1">
-        <v>8.9635790909999997</v>
+        <v>2.1812258940000002</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="C77" s="1">
-        <v>8.4238982599999996</v>
+        <v>2.0574387180000002</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="C78" s="1">
-        <v>0.36799747900000002</v>
+        <v>2.0443741969999998</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="C79" s="1">
-        <v>0.292729923</v>
+        <v>1.93398655</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C80" s="1">
-        <v>9.2801675990000003</v>
+        <v>1.829051405</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="C81" s="1">
-        <v>15.44059545</v>
+        <v>1.67460257</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="C82" s="1">
-        <v>1.055659739</v>
+        <v>1.592446708</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="C83" s="1">
-        <v>4.7230009820000003</v>
+        <v>1.589635345</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="C84" s="1">
-        <v>0.78331743300000001</v>
+        <v>1.58764153</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C85" s="1">
-        <v>2.314864848</v>
+        <v>1.3843499290000001</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c r="C86" s="1">
-        <v>1.3843499290000001</v>
+        <v>1.339260458</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>319</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="C87" s="1">
-        <v>7.8069775049999999</v>
+        <v>1.1046976159999999</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C88" s="1">
-        <v>5.2839460000000003</v>
+        <v>1.055659739</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="C89" s="1">
-        <v>33.174761189999998</v>
+        <v>1.0195481150000001</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="C90" s="1">
-        <v>3.745056081</v>
+        <v>0.98140212599999999</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>183</v>
+        <v>5</v>
       </c>
       <c r="C91" s="1">
-        <v>9.590429254</v>
+        <v>0.95725149600000004</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="C92" s="1">
-        <v>5.8414900000000004E-3</v>
+        <v>0.95437856099999996</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>325</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="C93" s="1">
-        <v>19.286559690000001</v>
+        <v>0.925446934</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>326</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="C94" s="1">
-        <v>0.32796071799999998</v>
+        <v>0.86023314799999995</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C95" s="1">
-        <v>21.865273269999999</v>
+        <v>0.78331743300000001</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="C96" s="1">
-        <v>8.5880635200000004</v>
+        <v>0.73941039399999997</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="C97" s="1">
-        <v>8.0186624519999992</v>
+        <v>0.67280607199999998</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="C98" s="1">
-        <v>6.003775278</v>
+        <v>0.56912596000000004</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>331</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="C99" s="1">
-        <v>12.49736687</v>
+        <v>0.53486648999999997</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="C100" s="1">
-        <v>6.2078932460000003</v>
+        <v>0.49596038199999998</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>332</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="C101" s="1">
-        <v>1.589635345</v>
+        <v>0.48887943</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="C102" s="1">
-        <v>7.1444698579999999</v>
+        <v>0.47152788800000001</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="C103" s="1">
-        <v>14.25069143</v>
+        <v>0.44223990200000002</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="C104" s="1">
-        <v>11.34438138</v>
+        <v>0.39407605200000001</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>336</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="C105" s="1">
-        <v>0.19551322099999999</v>
+        <v>0.393677624</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="C106" s="1">
-        <v>4.5057904249999998</v>
+        <v>0.36991952299999997</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="C107" s="1">
-        <v>0.73941039399999997</v>
+        <v>0.36799747900000002</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C108" s="1">
-        <v>13.095015099999999</v>
+        <v>0.32796071799999998</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>218</v>
+        <v>116</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="C109" s="1">
-        <v>1.0195481150000001</v>
+        <v>0.29843085800000002</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="C110" s="1">
-        <v>5.6856328219999996</v>
+        <v>0.292729923</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="C111" s="1">
-        <v>9.1503378999999996E-2</v>
+        <v>0.28928732400000001</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>224</v>
+        <v>52</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>225</v>
+        <v>53</v>
       </c>
       <c r="C112" s="1">
-        <v>5.388061692</v>
+        <v>0.24913648599999999</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C113" s="1">
-        <v>27.05307191</v>
+        <v>0.19551322099999999</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>229</v>
+        <v>41</v>
       </c>
       <c r="C114" s="1">
-        <v>8.4588782699999996</v>
+        <v>0.19032881200000001</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>346</v>
+        <v>253</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="C115" s="1">
-        <v>17.746380309999999</v>
+        <v>0.110937826</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>232</v>
+        <v>72</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="C116" s="1">
-        <v>2.0443741969999998</v>
+        <v>9.5156737000000005E-2</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>348</v>
+        <v>269</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C117" s="1">
-        <v>4.6971452490000001</v>
+        <v>9.1503378999999996E-2</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>236</v>
+        <v>130</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="C118" s="1">
-        <v>2.225015183</v>
+        <v>8.6494551000000003E-2</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="C119" s="1">
-        <v>4.7796080239999998</v>
+        <v>6.3419583000000002E-2</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>364</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>240</v>
+        <v>88</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>241</v>
+        <v>89</v>
       </c>
       <c r="C120" s="1">
-        <v>0.393677624</v>
+        <v>2.0099510000000001E-2</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>351</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="C121" s="1">
-        <v>0.28928732400000001</v>
+        <v>5.8414900000000004E-3</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
